--- a/data/hotels_by_city/Houston/Houston_shard_101.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_101.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55667-d107187-Reviews-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Comfort-Inn.h126986.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530299457005&amp;cancellable=false&amp;regionId=6134431&amp;vip=false&amp;c=68cf11e3-c78c-4b54-b4d7-48a55960888e&amp;mctc=9&amp;exp_dp=85.5&amp;exp_ts=1530299457514&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,804 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r567980850-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>107187</t>
+  </si>
+  <si>
+    <t>567980850</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Pick any inn other than this</t>
+  </si>
+  <si>
+    <t>I lived in this inn for one night. When I entered my room I found a dead cockroach and dirty commode. I wanted to brush my teeth, when I turned on the fauce, the water smelled weird. I got a bottle of water from vending machine to brush my teeth. The room was very dark and shady so I just had to go to front desk and ask them to change my room. I got the new room. The bathroom was cleaner but I couldn't sleep because throughout night AC kept making loud sound when it turned off. I left at 6 because I didn't want to take shower or brush my teeth in thr smelly water coming out of the faucet. Another weird thing is that they don't have pillows, they have cushions on bed. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I lived in this inn for one night. When I entered my room I found a dead cockroach and dirty commode. I wanted to brush my teeth, when I turned on the fauce, the water smelled weird. I got a bottle of water from vending machine to brush my teeth. The room was very dark and shady so I just had to go to front desk and ask them to change my room. I got the new room. The bathroom was cleaner but I couldn't sleep because throughout night AC kept making loud sound when it turned off. I left at 6 because I didn't want to take shower or brush my teeth in thr smelly water coming out of the faucet. Another weird thing is that they don't have pillows, they have cushions on bed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r459464511-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>459464511</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean - good breakfast. Located near lake Conroe - also right across street from Waffle House. Movie theater nearby - clean room no smoke smells. We arrived late and were able to get a good breakfast every day </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r457863264-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>457863264</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Trip to MD Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needed to visit MDAnderson in Houston. Decided to stay in Conroe and drive to Dr in morning. Hotel was very clean and quiet. Had room with jacuzzi tub. It actually fit both of us. Very close to restaurants of all flavors. My wife left her pillow behind. Called hotel that day. They mailed it to us immediately. Haven't seen bill for it but pillow was worth 150.00 so the 25.00 they said they were going to charge would have been worth it. Previous reviews said don't stay on street side due to road noise. We had no problems. Will stay there again next time. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r427443178-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>427443178</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Clean, average hotel</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is staffed by friendly people. It took a little convincing, but as Choice hotel Diamond member they were able to upgrade me to a mini suite. At first, they had nothing available but I explained that I was a member and would like to receive some of the benefits that they claim come with the diamond membership, which is why I stay with one hotel chain. I was happy and really appreciated the effort. The rooms are clean, the breakfast is good. The water pressure is super! Great location, just off the interstate on an exit that is not too busy. The Conroe Outlets are directly behind the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is staffed by friendly people. It took a little convincing, but as Choice hotel Diamond member they were able to upgrade me to a mini suite. At first, they had nothing available but I explained that I was a member and would like to receive some of the benefits that they claim come with the diamond membership, which is why I stay with one hotel chain. I was happy and really appreciated the effort. The rooms are clean, the breakfast is good. The water pressure is super! Great location, just off the interstate on an exit that is not too busy. The Conroe Outlets are directly behind the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r417948356-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>417948356</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Great value, great room, great service!</t>
+  </si>
+  <si>
+    <t>We traveled to Conroe, Texas for the weekend and knew the area we wanted to stay but wasn't sure what hotels were available.   My daughter found this Comfort Inn online and it was great!    The location was easy in and out and the restaurants in the area were plentiful and good choices.   The room was perfectly clean and spotless and we couldn't have asked for more!  The free breakfast was a breeze and off we went on our day!   You can't go wrong staying here!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r384085251-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>384085251</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>A little dated but still Great</t>
+  </si>
+  <si>
+    <t>There's only so much one can say about a hotel. This one was clean, well located, and comfortable. The one OUTSTANDING aspect of this hotel was the staff. We arrived early (around noon) and thought I would check and see if there was any chance of possibly checking in early. The young lady behind the desk immediately contact housekeeping to see if there were any clean rooms and they had just finished one and we were allowed to check in 3 hours early. Breakfast was good. Eggs,sausage patties, biscuits and various cold cereals and pastries.  No gravy or potatos (grr) but still plenty to eat. Coffee was excellent. The price was under a hundred bucks which is always a goal for me. I HATE to pay more than a hundred dollars for a simple place to sleep. Wifi worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>There's only so much one can say about a hotel. This one was clean, well located, and comfortable. The one OUTSTANDING aspect of this hotel was the staff. We arrived early (around noon) and thought I would check and see if there was any chance of possibly checking in early. The young lady behind the desk immediately contact housekeeping to see if there were any clean rooms and they had just finished one and we were allowed to check in 3 hours early. Breakfast was good. Eggs,sausage patties, biscuits and various cold cereals and pastries.  No gravy or potatos (grr) but still plenty to eat. Coffee was excellent. The price was under a hundred bucks which is always a goal for me. I HATE to pay more than a hundred dollars for a simple place to sleep. Wifi worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r371926054-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>371926054</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Very nice comfortable stay</t>
+  </si>
+  <si>
+    <t>Booked two rooms for two nights at this Comfort Inn in Conroe for son's graduation from Sam Houston State. The staff happily accommodated my daughter checking-in prior to my arrival. Room with two queen beds was spacious, clean and comfortable. This property still uses the four square pillows which I do not prefer. The complimentary breakfast was above average with eggs, sausage patties and biscuits each morning in addition to the waffles, pastries and cereal. Lids on coffee cups would not fit. Friendly and efficient staff at both check-in and check-out. Pool is a bit smallish. Good place to stay</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r370235683-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>370235683</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Great Location - Nice Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to Galveston for a cruise.  It was a great location to leave a short drive to the port the next morning.  It's right off the interstate with easy access, close to the outlet and a McDonalds.  Free breakfast was good and the staff were friendly.  The room was nice and clean.  We arrived late and left early the next day so we didn't spend a lot of time there, but I will definitely stay there again before our next cruise.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r364959845-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>364959845</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>smile smile smile</t>
+  </si>
+  <si>
+    <t>Bhavika, at the desk, was always helpful, smiling and "how are you today".  The rest ofthe staff - we were there for a week - never ever looked up to say anything.  I know this might be "petty" to others, but a simple Hello makes me happy.  anybody could have walked in and nobody ever looked up.  The air conditioner was so noisy everytime itchanged coolness.  I didn't complain because everything was old.  There was nosafe in room.  I did write to company and they acknowledged my complaints.  I just want people to be aware.  The location was excellent for our weeks stay.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r343479873-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>343479873</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Everything I needed &amp; more</t>
+  </si>
+  <si>
+    <t>I was extremely tired from driving &amp; just needed a place to rest my head. The front desk gentlemen offered me the cheapest deal for my two night stay. Everything was very well done &amp; all the staff were friendly/helpful. The free breakfast was full of options. Free WiFi &amp; other amenities were helpful to me too. I even had access to a computer &amp; printer for free. I very much enjoyed my stay!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r324716689-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>324716689</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>4 long days</t>
+  </si>
+  <si>
+    <t>This hotel fell short of my expectations. While the hotel is basically clean, everything is the bare minimum. The towels were dingy and needed to be replaced and we had to ask for extra towels because they only put 2 in a room. Breakfast was below average and they do not keep a coffee pot for guest in the lobby. The 2 clerks we had interaction with were polite but not friendly. As a diamond member I expected more than a view of the trash dumpster. I was told that no other rooms were available for upgrade. This bothered me because my reservation was made months ago. The sink didn't drain properly and the tv and microwave kept tripping the breaker. I spend over 100 nights a year in hotels this stay was not comfortable and not worth what we paid per nightMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This hotel fell short of my expectations. While the hotel is basically clean, everything is the bare minimum. The towels were dingy and needed to be replaced and we had to ask for extra towels because they only put 2 in a room. Breakfast was below average and they do not keep a coffee pot for guest in the lobby. The 2 clerks we had interaction with were polite but not friendly. As a diamond member I expected more than a view of the trash dumpster. I was told that no other rooms were available for upgrade. This bothered me because my reservation was made months ago. The sink didn't drain properly and the tv and microwave kept tripping the breaker. I spend over 100 nights a year in hotels this stay was not comfortable and not worth what we paid per nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r318262668-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>318262668</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Terrible!!!!! DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>We arrived at check in, and was greeted by a rather rude desk clerk who apparently had trouble smiling. This was overlooked, as we assumed that she just didn't like her job. Immediately, when we entered the room, we noticed that the bed was somewhat a mess, and investigated further to find fresh stains on the comforter, as well as stains on the sheets when we pulled back the covers. The sheets had obviously not been changed and there was only a poor attempt to remake the bed. This, along with a foul smell compelled us to leave the room, and inform the desk clerk. There was no attempt to offer another room, ( not that we would have stayed ), and not even an apology from the clerk. We have stayed at several Comfort Inss in the past, and never experienced anything but pleasant associates and exceptionally clean rooms. We are Gold rewards members, and would have expected perhaps a little more concern form the staff, and if nothing else, a clean room. NEVER AGAIN!! It is a shame that customer service has become mediocre at best. And for a frequent patron to be treated like we were bothering them is unacceptable. DO NOT STAY HERE! MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at check in, and was greeted by a rather rude desk clerk who apparently had trouble smiling. This was overlooked, as we assumed that she just didn't like her job. Immediately, when we entered the room, we noticed that the bed was somewhat a mess, and investigated further to find fresh stains on the comforter, as well as stains on the sheets when we pulled back the covers. The sheets had obviously not been changed and there was only a poor attempt to remake the bed. This, along with a foul smell compelled us to leave the room, and inform the desk clerk. There was no attempt to offer another room, ( not that we would have stayed ), and not even an apology from the clerk. We have stayed at several Comfort Inss in the past, and never experienced anything but pleasant associates and exceptionally clean rooms. We are Gold rewards members, and would have expected perhaps a little more concern form the staff, and if nothing else, a clean room. NEVER AGAIN!! It is a shame that customer service has become mediocre at best. And for a frequent patron to be treated like we were bothering them is unacceptable. DO NOT STAY HERE! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r294127145-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>294127145</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Employee lied!!</t>
+  </si>
+  <si>
+    <t>After driving 11 hours I stopped at comfort Inn in Conroe, Tx at 3:45 am this morning to get a few hours of sleep.  The inner lobby door of course was locked, I wait about what seemed to be 6 min.  I then called the number for the hotel since no one came to the desk.  A lady answered, and I sure wish I got her name.  She never came to the door and I never saw her.  She told me rooms were sold out.  I immediately knew she was not telling the truth.  I stated not one room, wow their are hardly any cars in the parking lot and online it says you have rooms.  She stated if I had booked online she would still have to deny me check in because she was full.  I told her that was not right, she told me I could try across the street at the other hotels.  I told her my husband is a platinum member and we were wanting to earn points that's why I drove to this hotel.  She didn't seem to care and that was that.  Come to find out they were not sold out.  I think she should be fired.  Her job is to sell rooms.  I was going to be there from 4am to 11am, that's easy money for the hotel for the few hours of sleep I would of gotten.  I called and spoke to...After driving 11 hours I stopped at comfort Inn in Conroe, Tx at 3:45 am this morning to get a few hours of sleep.  The inner lobby door of course was locked, I wait about what seemed to be 6 min.  I then called the number for the hotel since no one came to the desk.  A lady answered, and I sure wish I got her name.  She never came to the door and I never saw her.  She told me rooms were sold out.  I immediately knew she was not telling the truth.  I stated not one room, wow their are hardly any cars in the parking lot and online it says you have rooms.  She stated if I had booked online she would still have to deny me check in because she was full.  I told her that was not right, she told me I could try across the street at the other hotels.  I told her my husband is a platinum member and we were wanting to earn points that's why I drove to this hotel.  She didn't seem to care and that was that.  Come to find out they were not sold out.  I think she should be fired.  Her job is to sell rooms.  I was going to be there from 4am to 11am, that's easy money for the hotel for the few hours of sleep I would of gotten.  I called and spoke to the day shift person who apologized but offered nothing more than saying they would talk to the girl.  She didn't even ask my name or privileges information.  First time I have ever had this happen and I'm appalled.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>After driving 11 hours I stopped at comfort Inn in Conroe, Tx at 3:45 am this morning to get a few hours of sleep.  The inner lobby door of course was locked, I wait about what seemed to be 6 min.  I then called the number for the hotel since no one came to the desk.  A lady answered, and I sure wish I got her name.  She never came to the door and I never saw her.  She told me rooms were sold out.  I immediately knew she was not telling the truth.  I stated not one room, wow their are hardly any cars in the parking lot and online it says you have rooms.  She stated if I had booked online she would still have to deny me check in because she was full.  I told her that was not right, she told me I could try across the street at the other hotels.  I told her my husband is a platinum member and we were wanting to earn points that's why I drove to this hotel.  She didn't seem to care and that was that.  Come to find out they were not sold out.  I think she should be fired.  Her job is to sell rooms.  I was going to be there from 4am to 11am, that's easy money for the hotel for the few hours of sleep I would of gotten.  I called and spoke to...After driving 11 hours I stopped at comfort Inn in Conroe, Tx at 3:45 am this morning to get a few hours of sleep.  The inner lobby door of course was locked, I wait about what seemed to be 6 min.  I then called the number for the hotel since no one came to the desk.  A lady answered, and I sure wish I got her name.  She never came to the door and I never saw her.  She told me rooms were sold out.  I immediately knew she was not telling the truth.  I stated not one room, wow their are hardly any cars in the parking lot and online it says you have rooms.  She stated if I had booked online she would still have to deny me check in because she was full.  I told her that was not right, she told me I could try across the street at the other hotels.  I told her my husband is a platinum member and we were wanting to earn points that's why I drove to this hotel.  She didn't seem to care and that was that.  Come to find out they were not sold out.  I think she should be fired.  Her job is to sell rooms.  I was going to be there from 4am to 11am, that's easy money for the hotel for the few hours of sleep I would of gotten.  I called and spoke to the day shift person who apologized but offered nothing more than saying they would talk to the girl.  She didn't even ask my name or privileges information.  First time I have ever had this happen and I'm appalled.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r290533764-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>290533764</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>I stopped here traveling between Austin and Leesville , LA Was checked in quickly and staff friendly. The room was nice and clean. The in room coffee good. I left at 6 am before breakfast started (doesn't start till 630 am so I went across the street to McDonalds. Had to wait to check out. Normally because i'm a diamond memeber the bill is under my door in the morning but not here. The front desk person was putting the breakfast together which is common in these places. Anyway I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r284466946-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>284466946</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Comfort Inn in Conroe, Texas</t>
+  </si>
+  <si>
+    <t>Stayed here for work for a few days.Room was clean and staff where all nice and helpful.Only issue I had was some type of air freshener that was in the lobby wasn't to my liking, but guess you can't please everyone.Besides that a pleasant visit and will stay here again if back in the area.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r258878627-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>258878627</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Not Again</t>
+  </si>
+  <si>
+    <t>Staying here for a night on business and will request to not be here again. The staff was nice, but that's about where it ended. When I got in the room it was late so I started settling down, the bed had hair all over it, I dusted it off and looked around, floor was dirty so I turned on the tv, tv was messed up and had a line right down it. I grabbed the tv listings and the listings were not up to date so channels were all wrong. Decided to take a shower, there was hair on the back of the door and the shower head had white mildew all over it. I finished and went to close the window blinds only to figure out besides the see through drape there were no curtains to block out the lights around. Needless to say this will be the last time I stay in this hotel, and will request my company not put me here again either.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Staying here for a night on business and will request to not be here again. The staff was nice, but that's about where it ended. When I got in the room it was late so I started settling down, the bed had hair all over it, I dusted it off and looked around, floor was dirty so I turned on the tv, tv was messed up and had a line right down it. I grabbed the tv listings and the listings were not up to date so channels were all wrong. Decided to take a shower, there was hair on the back of the door and the shower head had white mildew all over it. I finished and went to close the window blinds only to figure out besides the see through drape there were no curtains to block out the lights around. Needless to say this will be the last time I stay in this hotel, and will request my company not put me here again either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r256670315-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>256670315</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient to 1-45  </t>
+  </si>
+  <si>
+    <t>Hotel is clean and friendly. Was given a late check out because I had to work all night. Prices are fair and if you can keep up with the current promotions CHOICE hotels is the way to go. I did the Hilton brand and it was very nice however for the daily traveler Choice is better. The hotel was very friendly with my service dog and gave me a downstairs near exit for convenience. Hotels need to be more consistent with prices in general in my opinion</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r242020638-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>242020638</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>I didn't stay for breakfast, but my room was fresh and clean. The bed comfortable and staff were very friendly. If I had to stay in the area I would definitely stay here again. It was conveniently located near restaurants and the highway.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r228476544-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>228476544</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This Hotel was perfect for what we needed it for.  The breakfast was decent for a continental breakfast.  They had waffles (in the shape of texas), eggs, and sausage with all the cold breakfast items as well.  Rooms were clean and our room had a small mini fridge and microwave which was very convenient.  Used the pool in the evening and it was clean and very warm.  Only complaint was they were doing construction to the business center.  Lobby doors were left open and the lobby got extremely hot.  Would return again.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r227966193-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>227966193</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Quality Room &amp; Service</t>
+  </si>
+  <si>
+    <t>Stayed during events in Conroe, close to Convention Center. Check in was very quick, lobby was SPOTLESS, welcoming. Booked non smoking king bed on first floor, just what I requested, rate was decent and room was spotless and updated case goods, television. Bathroom was spacious, NOT like typical 2.5 star Days Inn or Baymont. It was much better quality with same rate. I paid AAA rate of $90 and when I got receipt, it had same rate they quoted for 1 night, not like some other Hotels performing fraud activity. They seemed good. Breakfast area was also inviting with good lay out presentation. Front Desk was friendly, I liked housekeeping uniform with hair net. Definitely recommend Comfort Inn in Conroe to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Stayed during events in Conroe, close to Convention Center. Check in was very quick, lobby was SPOTLESS, welcoming. Booked non smoking king bed on first floor, just what I requested, rate was decent and room was spotless and updated case goods, television. Bathroom was spacious, NOT like typical 2.5 star Days Inn or Baymont. It was much better quality with same rate. I paid AAA rate of $90 and when I got receipt, it had same rate they quoted for 1 night, not like some other Hotels performing fraud activity. They seemed good. Breakfast area was also inviting with good lay out presentation. Front Desk was friendly, I liked housekeeping uniform with hair net. Definitely recommend Comfort Inn in Conroe to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r218375016-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>218375016</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Poor Quaility Room</t>
+  </si>
+  <si>
+    <t>If you are going to stay here, the "Hot Breakfast" leaves a lot to be desired.  When comparing this hotel to several other Comfort Inns, this one was by far the worst.  The A/C in our room didn't work and for breakfast, we had little saucer size eggs for breakfast.  Nothing else was edible.  Next time we head for Texas, will choose another place before this one.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r203259343-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>203259343</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>My Stay in Conroe, Texas</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Inn for two weeks while caring for a sick family member in a nursing home. I felt at home. Everyone was courteous and helpful. Ms. Patel was absolutely wonderful. All of the staff was kind and made my stay so pleasant. I will always stay here when in Conroe. The hotel was in a great location. It was close to restuarants,the movies,gas and outlet shopping. I also felt very safe at this hotel.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r201416619-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>201416619</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Friendly &amp; Helpful</t>
+  </si>
+  <si>
+    <t>We are so pleased with the customer service at this hotel! Ms Patel is always so helpful and she takes the time to make sure we get the rooms we need each stay. It is very hard to find a hotel to work with you on multiple stays but she always makes it possible! Call her today!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r200539017-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>200539017</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Just as you like it</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for almost a month while doing project work for my company. Check-in is simple and fast. The hotel staff is friendly and most accommodating. Any concerns were taken care of immediately (my smoke alarm started to chirp in my room) when I notified the front desk of it, someone was at my door in less than five minutes.  The rooms are clean and spacious. My room had a small frig, microwave and flat screen. The bedding is comfortable and as the heading states, everything is just how you would like and expect it to be.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r195148431-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>195148431</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We stayed here overnight after having to make a quick reservation since it was late and we needed to stop for the night. The staff was friendly. The room was extremely clean and the bed was very comfortable. The only issue we had was with the fridge, which hummed so loudly we finally unplugged it. The hotel was easy to get to - right off the highway with places to eat nearby and the price was reasonable. I would recommend staying here and we would too if in the area.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r195076625-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>195076625</t>
+  </si>
+  <si>
+    <t>Fred C</t>
+  </si>
+  <si>
+    <t>First started staying here because they offered truck parking......have been hooked every since...the staff are all friendly and helpful..rooms are nice and clean..BIG PLUS....always quiet atmosphere...location is good.....easy access to interstate......walking distance to eating and shopping locations...good breakfast.....the owners/managers are two of the nicest people..love talking to them...make you feel like you are friends..not just a hotel guest........I HIGHLY RECOMMEND......whenever i am in the area....THEY ARE MY FIRST CALL</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r189872307-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>189872307</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>We stayed here for 7 nights. Rates was very reasonable &amp; room was clean &amp; staff was very Friendly. Everyday Hot Breakfast was very good with lots of variety. Would stay here again if we ever in this area.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r164414804-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>164414804</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Nice and very well maintained</t>
+  </si>
+  <si>
+    <t>its very close to Lake Conroe n shopping area in conroe.. large and clean room ...very friendly staff...excellent Hot breakfast ...outdoor pool ,,,,restaurants are also close to the hotel.  loved it come back for sure ...</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r154716678-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>154716678</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Clean and affordable price</t>
+  </si>
+  <si>
+    <t>V stayed b'use here for the fun cheer ... It's a best place... Very nice breakfast special TX shape favored waffle ... Sausage, eggs, biscuit, yogurt, Etc ... Loved it .. Room was clean ... Excellent staff ... I wish they had pool open ... Will come back for sure..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r141740251-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>141740251</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Next to conroe outlet mall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My goto rest stop.when in this area. The rooms are large and comfortable. All the amenities you need for a night or a week. The up side outlet mall next door. Down side road construction on 45 makes it a little difficult to find. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r131994678-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>131994678</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Compleatlly satisfied</t>
+  </si>
+  <si>
+    <t>I booked the wrong motel for our stay  .  The rest of my grandsons baseball team had booked at another location. When I found out  about the mistake I couldn't get a room so I stayed with what I had. I had to drive a little further but after  the night sleep I had on a wonderful bed I didn't mind. The staff was super nice as was the motel. Mo regreats aout this mistake.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r131516075-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>131516075</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>First, the fitness center wasn't great but ok. Overall the hotel was one of the best in the comfort inn's I've stayed at. Again, The staff was very friendly and helpful. The room was pretty good but the couch was placed where you couldn't watch the tv but the golf channel was offered there, too bad there wasn't any tournaments on at the time.The restaurant across the street, Mama Juanita's, was fantastic.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r126461284-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>126461284</t>
+  </si>
+  <si>
+    <t>03/21/2012</t>
+  </si>
+  <si>
+    <t>Outstanding Value - Exceptionally Clean</t>
+  </si>
+  <si>
+    <t>We stayed in March for a business..Its a very good place to stay price was very less plus very nice breakfast...A very good staff ( Danny ) help me to find a location i need to go.don't forget to visit mama juanita mexican restaurant cross form the hotel...  i enjoyed a lot...</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r123061460-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>123061460</t>
+  </si>
+  <si>
+    <t>01/14/2012</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We stayed one night very nice and clean, sheets felt good and clean I will be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r119452296-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>119452296</t>
+  </si>
+  <si>
+    <t>10/18/2011</t>
+  </si>
+  <si>
+    <t>We loved it ....</t>
+  </si>
+  <si>
+    <t>I was traveling with my family &amp; friends .we had a 2 rms . we booked at online .its a nice staff and more about i loved the connceting room...we had a great breakfast, loved the shopping at the mall..we will come back for sure...</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r118883411-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>118883411</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>I wouldnt go back if you paid me to.</t>
+  </si>
+  <si>
+    <t>My fiance and I went for a romantic weekend getaway. We got a room with a whirlpool tub. Well when we checked in the guy at the front desk wasnt friendly at all. Then later in the night we turned the whirlpool on... and brown water came out of it. We went to get the guy at the front, he said "that isnt the hotels [problem"... UMMM SERIOUSLY? Im paying for a suite with a whirlpool, and the water is brown.... and it isnt the hotels fault??? I would never stay here again.ever.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r100211848-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>100211848</t>
+  </si>
+  <si>
+    <t>03/14/2011</t>
+  </si>
+  <si>
+    <t>very nice stay</t>
+  </si>
+  <si>
+    <t>i had a  very nice stay..nice hot breakfast..wifi in room..very friendly staff....room is so clean and neat ..will come back for sure.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r96860420-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>96860420</t>
+  </si>
+  <si>
+    <t>02/16/2011</t>
+  </si>
+  <si>
+    <t>Great bowling alley feel.</t>
+  </si>
+  <si>
+    <t>Walking in you can tell right away this is not a smoke free hotel. The smell of cigarette smoke and air freshener about knocks you over as you enter the lobby and only intensifies as you make you way to your room. The bathroom had a leak either under the tub or from the toilet. The ceiling had water stains and the room did not have adequate light. The breakfast bar was not stocked and had run our of biscuits and coffee before 7:00AM! I am not sure how this hotel received such a high rating but  I can assure you it is overstated.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r96153093-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>96153093</t>
+  </si>
+  <si>
+    <t>02/10/2011</t>
+  </si>
+  <si>
+    <t>Great stay for group booking</t>
+  </si>
+  <si>
+    <t>We had group booking for wedding party.. The staff was very accommodating ..                 I had read the hotel opened several years ago, so I was surprised when I saw how nicely it has been maintained. The beds were comfortable  The room was comfy and very clean, with several nice resturants with in walking distance, Felt very safe in the area.                      Hot Breakfast Buffet had several choices and was good. would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r91233347-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>91233347</t>
+  </si>
+  <si>
+    <t>12/31/2010</t>
+  </si>
+  <si>
+    <t>more value for price</t>
+  </si>
+  <si>
+    <t>I was traveling down to Houston and it was too late so checked in to Comfort Inn. I was greeted with warm welcome by front desk. Check in was easy. Very nice clean room with comfortable bed, in-room coffee and flat screen TV. Breakfast was really good and filling. Across from the Cracker Barrel where I had nice dinner. I would definitely recommend to future guest.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r83365725-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>83365725</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>excellent service</t>
+  </si>
+  <si>
+    <t>The beds were comfortable, and they had good hot breakfast.  Staff was friendly and gave me good directions to get me where I needed to go.  Had initial  problem with internet  but gave the front desk a call and fixed my issue right away.  Would come back again.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r57175489-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>57175489</t>
+  </si>
+  <si>
+    <t>02/26/2010</t>
+  </si>
+  <si>
+    <t>Breakfast was frozen sausage and stale biscuits- NO EGGS or hot breakfast at all!</t>
+  </si>
+  <si>
+    <t>First of all, the free hot breakfast (which is why I usually adore Comfort Inn) consisted of defrosted sausage links, gravy and stale biscuits. The "pastrys" were stale too. The only thing good about their breakfast was the juice and coffee. There was nothing hot about their "hot breakfast" at all. They threw a few unsavory boiled eggs into a container for you, but if you're expecting hot scrambled eggs, hash browns, and bacon - FORGET IT.Secondly, if your company reserved your room for you over the phone or online with a credit card, that doesn't mean you have a room at all. This is the only Comfort Inn location I've ever visited where the credit card, and card holder must be present during check in. I had to hang out in the lobby for forever and a day while the unfriendly staff exchanged faxes with my secretary back and forth for an eternity, providing all manner of IDs in the process. I felt like I was being treated like a criminal from the first moment. And Conroe, Texas is a very friendly town so I was very surprised.The room was clean, but the phone didn't work. Also, the "exercise room" is a room with a bike in it.My advice is go to a cheaper hotel, because the amenities that usually make a Comfort Inn worth it, are simply not present at this location in Conroe, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>First of all, the free hot breakfast (which is why I usually adore Comfort Inn) consisted of defrosted sausage links, gravy and stale biscuits. The "pastrys" were stale too. The only thing good about their breakfast was the juice and coffee. There was nothing hot about their "hot breakfast" at all. They threw a few unsavory boiled eggs into a container for you, but if you're expecting hot scrambled eggs, hash browns, and bacon - FORGET IT.Secondly, if your company reserved your room for you over the phone or online with a credit card, that doesn't mean you have a room at all. This is the only Comfort Inn location I've ever visited where the credit card, and card holder must be present during check in. I had to hang out in the lobby for forever and a day while the unfriendly staff exchanged faxes with my secretary back and forth for an eternity, providing all manner of IDs in the process. I felt like I was being treated like a criminal from the first moment. And Conroe, Texas is a very friendly town so I was very surprised.The room was clean, but the phone didn't work. Also, the "exercise room" is a room with a bike in it.My advice is go to a cheaper hotel, because the amenities that usually make a Comfort Inn worth it, are simply not present at this location in Conroe, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r7703550-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>7703550</t>
+  </si>
+  <si>
+    <t>05/26/2007</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This was our fourth visit to the Comfort Inn in Conroe, and we are never disappointed.  The room is not extravagant, but always clean and well maintained.  The breakfast is standard continental and quite adequate.  The staff is superb, very accommodating and courteous.  This hotel is in an excellent location, next to the Outlet Mall and across the freeway from Cracker Barrel restaurant.  It is easy access to IH-45 and we will continue to stay here whenever we are in the area.  Their business facilities are convenient with internet access, which we use every visit.  They have a small workout room and a clean pool.  I highly recommend this Comfort Inn to anyone visiting the  Conroe area.  It's a good and always consistant value.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>This was our fourth visit to the Comfort Inn in Conroe, and we are never disappointed.  The room is not extravagant, but always clean and well maintained.  The breakfast is standard continental and quite adequate.  The staff is superb, very accommodating and courteous.  This hotel is in an excellent location, next to the Outlet Mall and across the freeway from Cracker Barrel restaurant.  It is easy access to IH-45 and we will continue to stay here whenever we are in the area.  Their business facilities are convenient with internet access, which we use every visit.  They have a small workout room and a clean pool.  I highly recommend this Comfort Inn to anyone visiting the  Conroe area.  It's a good and always consistant value.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1336,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1368,2760 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>221</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>248</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J43" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" t="s">
+        <v>298</v>
+      </c>
+      <c r="L43" t="s">
+        <v>299</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s">
+        <v>306</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O44" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_101.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="477">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r594900063-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>107187</t>
+  </si>
+  <si>
+    <t>594900063</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>After stopping at another hotel and not caring for it, we booked a room at the Comfort Inn and have been well pleased. The hotel looks well maintained and our room was very clean. Good staff at the front desk and helpful. Good breakfast area. Pool area was good. Nothing to complain about. Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r594719507-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>594719507</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Wow!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was pleasantly surprised at the stay in the hotel!  Room was very spacious and actually offered plenty of lighting!  Even though the pool is a little on the smaller side, it is really nice!  On one end is a hot tub which overflows into the pool and in an opposite corner is a small kiddie pool!  </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r567980850-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
-    <t>55667</t>
-  </si>
-  <si>
-    <t>107187</t>
-  </si>
-  <si>
     <t>567980850</t>
   </si>
   <si>
@@ -216,6 +252,39 @@
     <t xml:space="preserve">Needed to visit MDAnderson in Houston. Decided to stay in Conroe and drive to Dr in morning. Hotel was very clean and quiet. Had room with jacuzzi tub. It actually fit both of us. Very close to restaurants of all flavors. My wife left her pillow behind. Called hotel that day. They mailed it to us immediately. Haven't seen bill for it but pillow was worth 150.00 so the 25.00 they said they were going to charge would have been worth it. Previous reviews said don't stay on street side due to road noise. We had no problems. Will stay there again next time. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r431011870-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>431011870</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>just passing through</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel multiple times. We were passing through on our way to Galveston. Very nice staff, rooms were clean and a very nice size. The bed was very comfortable. Breakfast was not bad the next morning. This is also a very safe area.There is no pool at this hotel.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r430456270-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>430456270</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by the size of our room.  It was very spacious and clean. Bed was very comfortable. Loved that the sink area was separate from the shower area. Next to the Conroe outlets.  We had a king sized bed with jacuzzi tub and I think it was $99.00. Great value would stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r427443178-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -231,9 +300,6 @@
     <t>This Comfort Inn is staffed by friendly people. It took a little convincing, but as Choice hotel Diamond member they were able to upgrade me to a mini suite. At first, they had nothing available but I explained that I was a member and would like to receive some of the benefits that they claim come with the diamond membership, which is why I stay with one hotel chain. I was happy and really appreciated the effort. The rooms are clean, the breakfast is good. The water pressure is super! Great location, just off the interstate on an exit that is not too busy. The Conroe Outlets are directly behind the hotel. MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>This Comfort Inn is staffed by friendly people. It took a little convincing, but as Choice hotel Diamond member they were able to upgrade me to a mini suite. At first, they had nothing available but I explained that I was a member and would like to receive some of the benefits that they claim come with the diamond membership, which is why I stay with one hotel chain. I was happy and really appreciated the effort. The rooms are clean, the breakfast is good. The water pressure is super! Great location, just off the interstate on an exit that is not too busy. The Conroe Outlets are directly behind the hotel. More</t>
   </si>
   <si>
@@ -255,9 +321,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r384085251-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -279,6 +342,33 @@
     <t>There's only so much one can say about a hotel. This one was clean, well located, and comfortable. The one OUTSTANDING aspect of this hotel was the staff. We arrived early (around noon) and thought I would check and see if there was any chance of possibly checking in early. The young lady behind the desk immediately contact housekeeping to see if there were any clean rooms and they had just finished one and we were allowed to check in 3 hours early. Breakfast was good. Eggs,sausage patties, biscuits and various cold cereals and pastries.  No gravy or potatos (grr) but still plenty to eat. Coffee was excellent. The price was under a hundred bucks which is always a goal for me. I HATE to pay more than a hundred dollars for a simple place to sleep. Wifi worked well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r384050671-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>384050671</t>
+  </si>
+  <si>
+    <t>Ok in a pinch</t>
+  </si>
+  <si>
+    <t>Hotel was clean but non smoking room reeked of cigarette smoke. Complained got a new room at the end of the hall but then we were out of range of the free wifi. Breakfast was good. Bed was good. It was the cheapest room in town that night so it was ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r380656091-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>380656091</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and reasonable</t>
+  </si>
+  <si>
+    <t>We have stayed at the Comfort Inn at Conroe on several occasions. Each stay has been comfortable with a nice clean room and good breakfast. On one stay the internet was down because of flooding but the staff was very helpful and we were able to check out and pay through the staff's cell phone.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r371926054-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -333,6 +423,39 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r364257976-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>364257976</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Nice place in Conroe</t>
+  </si>
+  <si>
+    <t>I have stayed this hotel before &amp; I am completely satisfied with the hotel service. Loved the workout room &amp; free Hot breakfast with lots of variety. Mama Juanita Mexican restaurant cross a street has an awesome food. Home away from home !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r360775984-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>360775984</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>This place is top notch!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived to a very clean room, nice pool, delicious breakfast! Wonderful housekeeping! Could not ask for more! We come every year to stay to attend family event off property. Look forward to returning! Staff is great! Very comfortable here! </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r343479873-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -393,6 +516,42 @@
     <t>We arrived at check in, and was greeted by a rather rude desk clerk who apparently had trouble smiling. This was overlooked, as we assumed that she just didn't like her job. Immediately, when we entered the room, we noticed that the bed was somewhat a mess, and investigated further to find fresh stains on the comforter, as well as stains on the sheets when we pulled back the covers. The sheets had obviously not been changed and there was only a poor attempt to remake the bed. This, along with a foul smell compelled us to leave the room, and inform the desk clerk. There was no attempt to offer another room, ( not that we would have stayed ), and not even an apology from the clerk. We have stayed at several Comfort Inss in the past, and never experienced anything but pleasant associates and exceptionally clean rooms. We are Gold rewards members, and would have expected perhaps a little more concern form the staff, and if nothing else, a clean room. NEVER AGAIN!! It is a shame that customer service has become mediocre at best. And for a frequent patron to be treated like we were bothering them is unacceptable. DO NOT STAY HERE! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r315776413-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>315776413</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Lovely lobby area, hotel is very clean and pleasant. Staff were friendly and helpful. Hotel is in a good location and easy to find. Rooms were clean and bed was comfy. It was just an overnight stay but nothing to complain about and I would stay here again</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r296163336-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>296163336</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>A Great, fast trip</t>
+  </si>
+  <si>
+    <t>I really wanted to talk up the Customer Service Rep Bhavika Patel. She is a wonderful person with a SUPERB personality. I'm a quiet sort, but she brought me out of my shell. She could make any trashy motel(no, Comfort Inn is not trashy) into a 5 star experience. She is really fun, and I hope she'll be there the next time we come down. I thought the Hotel was very nice. Very clean, and well kept. The ONLY complaint I have is that there are no black out curtains. Other than that, it's the perfect place to lay your head. Also, I'm not one for the busy of the city. This was located perfect for me, and was mere minutes from our destination. I couldn't've asked for a better place. McD's across the street for the young'un. Gas Station. Wendy's, and a Mexican Restaurant. There is some sort of shopping center behind the hotel, but I wasn't paying attention. Did I say Bhavika was GREAT???????? LOL a lovely person.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really wanted to talk up the Customer Service Rep Bhavika Patel. She is a wonderful person with a SUPERB personality. I'm a quiet sort, but she brought me out of my shell. She could make any trashy motel(no, Comfort Inn is not trashy) into a 5 star experience. She is really fun, and I hope she'll be there the next time we come down. I thought the Hotel was very nice. Very clean, and well kept. The ONLY complaint I have is that there are no black out curtains. Other than that, it's the perfect place to lay your head. Also, I'm not one for the busy of the city. This was located perfect for me, and was mere minutes from our destination. I couldn't've asked for a better place. McD's across the street for the young'un. Gas Station. Wendy's, and a Mexican Restaurant. There is some sort of shopping center behind the hotel, but I wasn't paying attention. Did I say Bhavika was GREAT???????? LOL a lovely person.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r294127145-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -450,6 +609,42 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r265272789-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>265272789</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>dirty room</t>
+  </si>
+  <si>
+    <t>we allways stay at thei inn when we visit Conroe every yr for the past 2 yrs, they try to tell us that we had a do not disturb sign hanging on our door and didn't clean the room all they gave us ws a 20% dic or a clean room they did bring up clean towels but the mainnuts man brought them up andnot he manger the manget would not show his face at all so when we go to Conroe which is ony once a yr we will not stay here again they were nice last  yr so we decide to try them again but not again I told them that we were leaving and they could clean itMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>we allways stay at thei inn when we visit Conroe every yr for the past 2 yrs, they try to tell us that we had a do not disturb sign hanging on our door and didn't clean the room all they gave us ws a 20% dic or a clean room they did bring up clean towels but the mainnuts man brought them up andnot he manger the manget would not show his face at all so when we go to Conroe which is ony once a yr we will not stay here again they were nice last  yr so we decide to try them again but not again I told them that we were leaving and they could clean itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r259308487-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>259308487</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>THE over friendly staff make this hotel a great place for any business traveler. Along with the clean and comfortable rooms, you will find business center is great, the breakfast area always clean, and the breakfast is above average for the Choice hotel chains. I stay here every time I am in the area. Lots of dining clustered all around this hotel, so I never have to search something out.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r258878627-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -465,9 +660,6 @@
     <t>Staying here for a night on business and will request to not be here again. The staff was nice, but that's about where it ended. When I got in the room it was late so I started settling down, the bed had hair all over it, I dusted it off and looked around, floor was dirty so I turned on the tv, tv was messed up and had a line right down it. I grabbed the tv listings and the listings were not up to date so channels were all wrong. Decided to take a shower, there was hair on the back of the door and the shower head had white mildew all over it. I finished and went to close the window blinds only to figure out besides the see through drape there were no curtains to block out the lights around. Needless to say this will be the last time I stay in this hotel, and will request my company not put me here again either.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Staying here for a night on business and will request to not be here again. The staff was nice, but that's about where it ended. When I got in the room it was late so I started settling down, the bed had hair all over it, I dusted it off and looked around, floor was dirty so I turned on the tv, tv was messed up and had a line right down it. I grabbed the tv listings and the listings were not up to date so channels were all wrong. Decided to take a shower, there was hair on the back of the door and the shower head had white mildew all over it. I finished and went to close the window blinds only to figure out besides the see through drape there were no curtains to block out the lights around. Needless to say this will be the last time I stay in this hotel, and will request my company not put me here again either.More</t>
   </si>
   <si>
@@ -507,6 +699,36 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r239290156-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>239290156</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Again Excellent Stay :)</t>
+  </si>
+  <si>
+    <t>Every time i come to conroe this is my Favorite Hotel . As soon as  I walk in They know my name &amp; Express Check In which i love it !!! This hotel has a very friendly staff for sure . they put new Furniture but i like most is Lamp with plug outlet so much convenient for my phone &amp; Laptop. Nice hot Breakfast in the morning.. Will come back for Sure !!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r239153451-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>239153451</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Had stay here before and it was clean and well maintained. This time I found it dirty smelling of cigarette smoke. Carpets worn rooms poorly maintained in general just dirty. Will not be back to this one. Wi-fi connection was horrible and the TV stations were limited.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r228476544-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -564,6 +786,36 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r209490511-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>209490511</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Late night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived late around 10:30 and only stayed one night, clerk was very polite, just didn't have much personality and wasn't overly friendly.  Rooms were spacious and clean, Beds were very comfortable.   Only complaint (and it's small) is water pressure wasn't as great as would have liked in shower. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r206105081-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>206105081</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay in Conroe</t>
+  </si>
+  <si>
+    <t>I stayed this comfort because of my work .. Very friendly Staff .. Very quick check in and checking out ...restaurant are also close by ... Great breakfast .. Every time I see they are putting new stuff.. One of the best comfort inn I have stayed at ...</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r203259343-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -615,6 +867,39 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r198120884-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>198120884</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Again excellent customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my second time and they know who you are ... Very very friendly service .. Room was great and very good breakfast ... I wish the pool was open ... Will coming back for sure...yes one more thing cross a street Mama Juanita Mexican Restaurant has a very good food .. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r197566995-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>197566995</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>the staff was a very big reason for the very good rating</t>
+  </si>
+  <si>
+    <t>This was the first time in this hotel. The last time that I came to Houston, I stayed across the street at La Quinta. The room was clean, and everything worked as it should. The hotel itself could use a facelift On the positive side was the staff who were welcoming at all times. They actually made my stay from average, to very good. If I could give any constructive criticism, it would be to lose some of the signs inside the room warning guests of how much they would be charged if they took a bedsheet, towel, ironing board, etc........... I am not sure if this has been a problem for the hotel (with guests running off with an ironing board), but those signs were a bit much :).MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the first time in this hotel. The last time that I came to Houston, I stayed across the street at La Quinta. The room was clean, and everything worked as it should. The hotel itself could use a facelift On the positive side was the staff who were welcoming at all times. They actually made my stay from average, to very good. If I could give any constructive criticism, it would be to lose some of the signs inside the room warning guests of how much they would be charged if they took a bedsheet, towel, ironing board, etc........... I am not sure if this has been a problem for the hotel (with guests running off with an ironing board), but those signs were a bit much :).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r195148431-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -666,6 +951,42 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r177056857-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>177056857</t>
+  </si>
+  <si>
+    <t>09/13/2013</t>
+  </si>
+  <si>
+    <t>Nice.</t>
+  </si>
+  <si>
+    <t>I had meetings in Houston, but everything was sold out or $200 so I stayed here for $89.  Seemed well maintained, fresh paint, really big room.  OK breakfast.  One of my light switches was sticking out from the wall (the whole switch/box) but other than that not much wrong with the room.  Not a five star hotel, but good if you're wanting to stay somewhere clean on a budget.  Only one hour to downtown Houston.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r175627582-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>175627582</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Extremely dirt</t>
+  </si>
+  <si>
+    <t>The only reason this did not the rating of 1 is because of how friendly and helpful the staff are.  This place was extremely dirty.  I was told that the carpet was due to be cleaned soon but it was long passed due.  I took a shower and walked around bare footed for a while.  When I started to put my shoes on, the bottom of my feet were extremely dirty and had to be washed again.  My husband dropped something behind the night stand and  told me not to look because I would be sick.  The lights were so dim, you could barely see yourself in the bath mirror. The breakfast was nice. Also there were no bugs....thank goodness!MoreShow less</t>
+  </si>
+  <si>
+    <t>The only reason this did not the rating of 1 is because of how friendly and helpful the staff are.  This place was extremely dirty.  I was told that the carpet was due to be cleaned soon but it was long passed due.  I took a shower and walked around bare footed for a while.  When I started to put my shoes on, the bottom of my feet were extremely dirty and had to be washed again.  My husband dropped something behind the night stand and  told me not to look because I would be sick.  The lights were so dim, you could barely see yourself in the bath mirror. The breakfast was nice. Also there were no bugs....thank goodness!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r164414804-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -714,6 +1035,42 @@
     <t xml:space="preserve">My goto rest stop.when in this area. The rooms are large and comfortable. All the amenities you need for a night or a week. The up side outlet mall next door. Down side road construction on 45 makes it a little difficult to find. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r134933750-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>134933750</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>One of the best in chain</t>
+  </si>
+  <si>
+    <t>Booked this for a recent business trip based on the valid reviews (i.e. reviewed more than 3 places) and was not disappointed. The place was very clean, staff very friendly, remebered who I was and took an interest in what I was doing. The breakfast was good and selection maintained through the breakfast period. Food and a gas station within short walking distance, close to the freeway but outside the noise distance. I'm sure you couldn't pick a better place to stay locally even close to this price</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r132228404-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>132228404</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Great stay...great breakfast!</t>
+  </si>
+  <si>
+    <t>We could not have been more satisfied...clean rooms, good parking, friendly staff! Highly recommend!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r131994678-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -765,6 +1122,42 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r124349189-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>124349189</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>Good stopover</t>
+  </si>
+  <si>
+    <t>This is a super clean hotel.  Some of the color decorations are a little too drap, but that is only a minor comment.  We had a king room, and it was very large.  It included a business desk, sofa, coffee table, micro, fridge.A pluses are that it's easy off-on of the freeway and there are several quality restaurants nearby and it is at the entrance to the Conroe shopping mall.Breakfast is about average for this type hotel.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r124255188-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>124255188</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Good Stop</t>
+  </si>
+  <si>
+    <t>We were headed to Galveston to board a cruise ship and stopped there for the night. Conroe is about two hours from Galveston. The hotel was clean, friendly, and had a fresh smell. The room was nice and comfortable as well as the bed. If you looked close there was some wear showing. Breakfast was good, standard fare for Comfort Inn less the egg patties. Will stop there again. There is some I45 construction to navigate but it's not too bad.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r123061460-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -816,6 +1209,42 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r114614447-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>114614447</t>
+  </si>
+  <si>
+    <t>06/21/2011</t>
+  </si>
+  <si>
+    <t>Fantastic hotel! Couldn't ask for more.....</t>
+  </si>
+  <si>
+    <t>we really loved this hotel. special HOT breakfast...outdoor POOL ( kids enjoyed very very much), rooms are very NEAT, very friendly staff, shopping at outlet MALL was really good, across street Mexican MAMA JUANITA was really Yummy...JUST LOVED ITWILL COME BACK FOR SURE</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r108959719-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>108959719</t>
+  </si>
+  <si>
+    <t>05/19/2011</t>
+  </si>
+  <si>
+    <t>Very Affordable price range. Will come back..</t>
+  </si>
+  <si>
+    <t>Very nice hotel, clean rooms, excellent staff , Mexican resaturant cross from the hotel (nice food) ,  fastest Internet service , Morning HOT breakfast is really good.. Will Come Back For Sure</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r100211848-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -867,6 +1296,42 @@
     <t>We had group booking for wedding party.. The staff was very accommodating ..                 I had read the hotel opened several years ago, so I was surprised when I saw how nicely it has been maintained. The beds were comfortable  The room was comfy and very clean, with several nice resturants with in walking distance, Felt very safe in the area.                      Hot Breakfast Buffet had several choices and was good. would stay again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r95940497-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>95940497</t>
+  </si>
+  <si>
+    <t>02/08/2011</t>
+  </si>
+  <si>
+    <t>Loved It ! Very Neat &amp; Clean</t>
+  </si>
+  <si>
+    <t>We usually try to stay at Comfort Inn when we travel because of the consistent high level of quality, no matter where you stay. They have large, comfortable rooms, usually a pool (we have kids, so that's VERY important), and of course the great morning breakfast WE have the make-our-own waffle station, &amp; the waffle iron is shaped like Texas! : )Texas shape waffle!This hotel meets the levels of quality and consistency we expect when we stay at Comfort Inn. It's a pretty neat hotel - LOVED  The room was big and clean, as was the bathroom. I also like their Pillows.I rated this hotel "above average", which to me is the standard for all .So this hotel meets those high standards and I would highly recommend it to anyone. plus point is this price is very AFFORDABLE.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>We usually try to stay at Comfort Inn when we travel because of the consistent high level of quality, no matter where you stay. They have large, comfortable rooms, usually a pool (we have kids, so that's VERY important), and of course the great morning breakfast WE have the make-our-own waffle station, &amp; the waffle iron is shaped like Texas! : )Texas shape waffle!This hotel meets the levels of quality and consistency we expect when we stay at Comfort Inn. It's a pretty neat hotel - LOVED  The room was big and clean, as was the bathroom. I also like their Pillows.I rated this hotel "above average", which to me is the standard for all .So this hotel meets those high standards and I would highly recommend it to anyone. plus point is this price is very AFFORDABLE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r95938028-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>95938028</t>
+  </si>
+  <si>
+    <t>Excellent comfortable hotel with friendly staff</t>
+  </si>
+  <si>
+    <t>I had a great stay at this Comfort Inn for two nights. The staff were friendly, and the complimentary breakfast was wonderful. The room was big and I really used (and appreciated) the free internet. The bedding was nice and soft, and the room overall was very clean and comfortable. Breakfast seating was ample and the food was good quality and fresh.  Breakfast included coffee, tea, orange juice, apple juice, assorted danish, mini muffins, toast, bagels, waffles, hard boiled eggs, biscuits with country gravy, sausage,gravy yogurt, etc. Every employee was really polite and kept asking how we were doing and if their was anything that they could do to make our stay more pleasant. Check out was fast and all charges were correct. On all future trips to Conroe I will definitely be staying at this in comfort innAnd finally but not least there is a Mama Juanita( Mexican ) restaurant food with Bar across from hotel what more can in ask for..MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a great stay at this Comfort Inn for two nights. The staff were friendly, and the complimentary breakfast was wonderful. The room was big and I really used (and appreciated) the free internet. The bedding was nice and soft, and the room overall was very clean and comfortable. Breakfast seating was ample and the food was good quality and fresh.  Breakfast included coffee, tea, orange juice, apple juice, assorted danish, mini muffins, toast, bagels, waffles, hard boiled eggs, biscuits with country gravy, sausage,gravy yogurt, etc. Every employee was really polite and kept asking how we were doing and if their was anything that they could do to make our stay more pleasant. Check out was fast and all charges were correct. On all future trips to Conroe I will definitely be staying at this in comfort innAnd finally but not least there is a Mama Juanita( Mexican ) restaurant food with Bar across from hotel what more can in ask for..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r91233347-Comfort_Inn-Conroe_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1387,45 @@
   </si>
   <si>
     <t>First of all, the free hot breakfast (which is why I usually adore Comfort Inn) consisted of defrosted sausage links, gravy and stale biscuits. The "pastrys" were stale too. The only thing good about their breakfast was the juice and coffee. There was nothing hot about their "hot breakfast" at all. They threw a few unsavory boiled eggs into a container for you, but if you're expecting hot scrambled eggs, hash browns, and bacon - FORGET IT.Secondly, if your company reserved your room for you over the phone or online with a credit card, that doesn't mean you have a room at all. This is the only Comfort Inn location I've ever visited where the credit card, and card holder must be present during check in. I had to hang out in the lobby for forever and a day while the unfriendly staff exchanged faxes with my secretary back and forth for an eternity, providing all manner of IDs in the process. I felt like I was being treated like a criminal from the first moment. And Conroe, Texas is a very friendly town so I was very surprised.The room was clean, but the phone didn't work. Also, the "exercise room" is a room with a bike in it.My advice is go to a cheaper hotel, because the amenities that usually make a Comfort Inn worth it, are simply not present at this location in Conroe, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r48863932-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>48863932</t>
+  </si>
+  <si>
+    <t>11/09/2009</t>
+  </si>
+  <si>
+    <t>Good, but ...</t>
+  </si>
+  <si>
+    <t>Clean room with all the basics - iron and ironing board, small frig, microwave, tv, adequate offerings at the breakfast buffet.  BUT ... the plug by the sink didn't work, even after the desk said they'd reset the breaker.  Even though it was still quite warm, the pool had been closed.  The frig was unplugged and took overnight to cool, so I resorted to using ice in a bucket.  Internet service downstairs in the lobby took nearly 15 minutes and still hadn't managed to load a page in Internet Explorer (finally tried Firefox and it was MUCH better.) That said, I would definitely stay there again because of the friendly and very helpful staff.  Would recommend with some reservations (no pun intended.)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>Clean room with all the basics - iron and ironing board, small frig, microwave, tv, adequate offerings at the breakfast buffet.  BUT ... the plug by the sink didn't work, even after the desk said they'd reset the breaker.  Even though it was still quite warm, the pool had been closed.  The frig was unplugged and took overnight to cool, so I resorted to using ice in a bucket.  Internet service downstairs in the lobby took nearly 15 minutes and still hadn't managed to load a page in Internet Explorer (finally tried Firefox and it was MUCH better.) That said, I would definitely stay there again because of the friendly and very helpful staff.  Would recommend with some reservations (no pun intended.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r11033895-Comfort_Inn-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>11033895</t>
+  </si>
+  <si>
+    <t>11/24/2007</t>
+  </si>
+  <si>
+    <t>Great for Business Stay</t>
+  </si>
+  <si>
+    <t>My co-worker and I had business in Huntsville, TX and we were advised to stay in Conroe as the hotel selection is better.  There was a Renaissance Fair going on in the area and Comfort Inn was the only hotel with rooms available.The rooms were clean and adequate.  There is a Waffle House across the street but the free breakfast at the hotel was satisfying.  There are many restaurants located in the area (1 or 2 exits to the South of the hotel).  There is an outlet mall adjacent to the hotel.I will stay at this hotel again when I'm in the area.  The value is great.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107187-r7703550-Comfort_Inn-Conroe_Texas.html</t>
@@ -1477,7 +1981,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1497,7 +2001,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1513,34 +2017,34 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1554,7 +2058,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1570,34 +2074,34 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1654,7 +2158,7 @@
         <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1668,7 +2172,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1708,23 +2212,17 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1747,43 +2245,43 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>85</v>
-      </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
         <v>5</v>
       </c>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1794,7 +2292,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1810,42 +2308,40 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" t="s">
-        <v>91</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1857,7 +2353,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1873,54 +2369,48 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" t="s">
-        <v>97</v>
-      </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1936,37 +2426,37 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="n">
@@ -1975,7 +2465,7 @@
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1983,7 +2473,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -1999,48 +2489,54 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
         <v>105</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2056,7 +2552,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2065,43 +2561,39 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -2117,7 +2609,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2126,35 +2618,45 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -2170,7 +2672,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2179,39 +2681,45 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
@@ -2227,7 +2735,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2236,30 +2744,30 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="n">
         <v>4</v>
       </c>
@@ -2274,7 +2782,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -2290,7 +2798,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2299,37 +2807,37 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2337,7 +2845,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -2353,7 +2861,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2362,25 +2870,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2394,7 +2902,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
@@ -2410,7 +2918,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2419,22 +2927,22 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s">
         <v>52</v>
@@ -2451,7 +2959,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
@@ -2467,7 +2975,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2476,25 +2984,25 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2508,7 +3016,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -2524,7 +3032,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2533,35 +3041,35 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2569,7 +3077,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2585,7 +3093,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2594,45 +3102,35 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>174</v>
-      </c>
-      <c r="O21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -2648,7 +3146,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2657,35 +3155,35 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2693,7 +3191,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -2709,7 +3207,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2718,38 +3216,32 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2760,7 +3252,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
@@ -2776,7 +3268,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2785,25 +3277,25 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2817,7 +3309,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -2833,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2842,41 +3334,37 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2884,7 +3372,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
@@ -2900,7 +3388,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2909,35 +3397,31 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>5</v>
       </c>
@@ -2951,7 +3435,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
@@ -2967,7 +3451,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2976,41 +3460,35 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
         <v>201</v>
       </c>
-      <c r="K27" t="s">
-        <v>207</v>
-      </c>
-      <c r="L27" t="s">
-        <v>208</v>
-      </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
         <v>52</v>
       </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3018,7 +3496,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -3034,7 +3512,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3043,38 +3521,32 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3085,7 +3557,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
@@ -3101,7 +3573,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3110,49 +3582,39 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
@@ -3168,7 +3630,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3177,45 +3639,39 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
@@ -3231,7 +3687,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3240,45 +3696,39 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>152</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
@@ -3294,7 +3744,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3303,38 +3753,34 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3345,7 +3791,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
@@ -3361,7 +3807,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3370,41 +3816,37 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3412,7 +3854,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -3428,7 +3870,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3437,41 +3879,35 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s">
         <v>52</v>
       </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3479,7 +3915,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35">
@@ -3495,7 +3931,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3504,37 +3940,37 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J35" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K35" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>248</v>
+      </c>
+      <c r="O35" t="s">
+        <v>64</v>
+      </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3542,7 +3978,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
@@ -3558,50 +3994,44 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" t="s">
         <v>254</v>
       </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>255</v>
       </c>
-      <c r="J36" t="s">
-        <v>256</v>
-      </c>
-      <c r="K36" t="s">
-        <v>257</v>
-      </c>
-      <c r="L36" t="s">
-        <v>258</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>259</v>
-      </c>
       <c r="O36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3609,7 +4039,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37">
@@ -3625,58 +4055,44 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s">
         <v>260</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" t="s">
-        <v>261</v>
-      </c>
-      <c r="J37" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" t="s">
-        <v>263</v>
-      </c>
-      <c r="L37" t="s">
-        <v>264</v>
-      </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>265</v>
-      </c>
-      <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38">
@@ -3692,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3701,34 +4117,30 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s">
-        <v>271</v>
-      </c>
-      <c r="O38" t="s">
-        <v>52</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -3743,7 +4155,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
@@ -3759,7 +4171,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3768,39 +4180,49 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J39" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
@@ -3816,7 +4238,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -3825,45 +4247,39 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K40" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="N40" t="s">
+        <v>271</v>
+      </c>
+      <c r="O40" t="s">
+        <v>64</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -3879,7 +4295,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -3888,34 +4304,34 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -3930,7 +4346,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -3946,7 +4362,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -3955,39 +4371,45 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s">
-        <v>294</v>
-      </c>
-      <c r="O42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
@@ -4003,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4012,41 +4434,41 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K43" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4054,7 +4476,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
@@ -4070,7 +4492,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4079,31 +4501,31 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J44" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K44" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O44" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
@@ -4121,7 +4543,1967 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" t="s">
+        <v>296</v>
+      </c>
+      <c r="K45" t="s">
+        <v>302</v>
+      </c>
+      <c r="L45" t="s">
+        <v>303</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>304</v>
+      </c>
+      <c r="O45" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" t="s">
         <v>308</v>
+      </c>
+      <c r="L46" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>310</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s">
+        <v>315</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>316</v>
+      </c>
+      <c r="O47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>317</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>318</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+      <c r="K48" t="s">
+        <v>320</v>
+      </c>
+      <c r="L48" t="s">
+        <v>321</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>316</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>324</v>
+      </c>
+      <c r="J49" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" t="s">
+        <v>326</v>
+      </c>
+      <c r="L49" t="s">
+        <v>327</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>328</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>329</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>330</v>
+      </c>
+      <c r="J50" t="s">
+        <v>331</v>
+      </c>
+      <c r="K50" t="s">
+        <v>332</v>
+      </c>
+      <c r="L50" t="s">
+        <v>333</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>335</v>
+      </c>
+      <c r="J51" t="s">
+        <v>336</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s">
+        <v>338</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" t="s">
+        <v>342</v>
+      </c>
+      <c r="L52" t="s">
+        <v>343</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>344</v>
+      </c>
+      <c r="O52" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>345</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" t="s">
+        <v>347</v>
+      </c>
+      <c r="K53" t="s">
+        <v>348</v>
+      </c>
+      <c r="L53" t="s">
+        <v>349</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>350</v>
+      </c>
+      <c r="O53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" t="s">
+        <v>353</v>
+      </c>
+      <c r="K54" t="s">
+        <v>354</v>
+      </c>
+      <c r="L54" t="s">
+        <v>355</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>356</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>357</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>358</v>
+      </c>
+      <c r="J55" t="s">
+        <v>359</v>
+      </c>
+      <c r="K55" t="s">
+        <v>360</v>
+      </c>
+      <c r="L55" t="s">
+        <v>361</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>356</v>
+      </c>
+      <c r="O55" t="s">
+        <v>64</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>363</v>
+      </c>
+      <c r="J56" t="s">
+        <v>364</v>
+      </c>
+      <c r="K56" t="s">
+        <v>365</v>
+      </c>
+      <c r="L56" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>367</v>
+      </c>
+      <c r="O56" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>369</v>
+      </c>
+      <c r="J57" t="s">
+        <v>370</v>
+      </c>
+      <c r="K57" t="s">
+        <v>371</v>
+      </c>
+      <c r="L57" t="s">
+        <v>372</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>373</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>374</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>375</v>
+      </c>
+      <c r="J58" t="s">
+        <v>376</v>
+      </c>
+      <c r="K58" t="s">
+        <v>377</v>
+      </c>
+      <c r="L58" t="s">
+        <v>378</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>379</v>
+      </c>
+      <c r="O58" t="s">
+        <v>184</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>380</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" t="s">
+        <v>382</v>
+      </c>
+      <c r="K59" t="s">
+        <v>383</v>
+      </c>
+      <c r="L59" t="s">
+        <v>384</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>387</v>
+      </c>
+      <c r="K60" t="s">
+        <v>388</v>
+      </c>
+      <c r="L60" t="s">
+        <v>389</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>390</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>391</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>392</v>
+      </c>
+      <c r="J61" t="s">
+        <v>393</v>
+      </c>
+      <c r="K61" t="s">
+        <v>394</v>
+      </c>
+      <c r="L61" t="s">
+        <v>395</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>396</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>402</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>403</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K63" t="s">
+        <v>406</v>
+      </c>
+      <c r="L63" t="s">
+        <v>407</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>408</v>
+      </c>
+      <c r="O63" t="s">
+        <v>64</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>409</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>410</v>
+      </c>
+      <c r="J64" t="s">
+        <v>411</v>
+      </c>
+      <c r="K64" t="s">
+        <v>412</v>
+      </c>
+      <c r="L64" t="s">
+        <v>413</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>414</v>
+      </c>
+      <c r="O64" t="s">
+        <v>64</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>415</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>416</v>
+      </c>
+      <c r="J65" t="s">
+        <v>417</v>
+      </c>
+      <c r="K65" t="s">
+        <v>418</v>
+      </c>
+      <c r="L65" t="s">
+        <v>419</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>420</v>
+      </c>
+      <c r="O65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>421</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>422</v>
+      </c>
+      <c r="J66" t="s">
+        <v>423</v>
+      </c>
+      <c r="K66" t="s">
+        <v>424</v>
+      </c>
+      <c r="L66" t="s">
+        <v>425</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>426</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>427</v>
+      </c>
+      <c r="J67" t="s">
+        <v>428</v>
+      </c>
+      <c r="K67" t="s">
+        <v>429</v>
+      </c>
+      <c r="L67" t="s">
+        <v>430</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>431</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>433</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>434</v>
+      </c>
+      <c r="J68" t="s">
+        <v>428</v>
+      </c>
+      <c r="K68" t="s">
+        <v>435</v>
+      </c>
+      <c r="L68" t="s">
+        <v>436</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>420</v>
+      </c>
+      <c r="O68" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>439</v>
+      </c>
+      <c r="J69" t="s">
+        <v>440</v>
+      </c>
+      <c r="K69" t="s">
+        <v>441</v>
+      </c>
+      <c r="L69" t="s">
+        <v>442</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>443</v>
+      </c>
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>444</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J70" t="s">
+        <v>446</v>
+      </c>
+      <c r="K70" t="s">
+        <v>447</v>
+      </c>
+      <c r="L70" t="s">
+        <v>448</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>449</v>
+      </c>
+      <c r="O70" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>450</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>451</v>
+      </c>
+      <c r="J71" t="s">
+        <v>452</v>
+      </c>
+      <c r="K71" t="s">
+        <v>453</v>
+      </c>
+      <c r="L71" t="s">
+        <v>454</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>455</v>
+      </c>
+      <c r="O71" t="s">
+        <v>64</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>457</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>458</v>
+      </c>
+      <c r="J72" t="s">
+        <v>459</v>
+      </c>
+      <c r="K72" t="s">
+        <v>460</v>
+      </c>
+      <c r="L72" t="s">
+        <v>461</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>462</v>
+      </c>
+      <c r="O72" t="s">
+        <v>64</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>464</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>465</v>
+      </c>
+      <c r="J73" t="s">
+        <v>466</v>
+      </c>
+      <c r="K73" t="s">
+        <v>467</v>
+      </c>
+      <c r="L73" t="s">
+        <v>468</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>469</v>
+      </c>
+      <c r="O73" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37116</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>470</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>471</v>
+      </c>
+      <c r="J74" t="s">
+        <v>472</v>
+      </c>
+      <c r="K74" t="s">
+        <v>473</v>
+      </c>
+      <c r="L74" t="s">
+        <v>474</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>475</v>
+      </c>
+      <c r="O74" t="s">
+        <v>184</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
